--- a/Data/royacafe_data.xlsx
+++ b/Data/royacafe_data.xlsx
@@ -7,19 +7,15 @@
     <workbookView xWindow="600" yWindow="30" windowWidth="19440" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId1"/>
+    <sheet name="royacafe_data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="28">
-  <si>
-    <t>Municipio</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="73">
   <si>
     <t>Initial</t>
   </si>
@@ -27,9 +23,36 @@
     <t>Final</t>
   </si>
   <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>PVI</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>LVI</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Lechoso</t>
+  </si>
+  <si>
+    <t>Consistente</t>
+  </si>
+  <si>
+    <t>Maduro</t>
+  </si>
+  <si>
     <t>San Mateo Piñas</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>San Pedro Pochutla</t>
   </si>
   <si>
@@ -39,15 +62,6 @@
     <t>Candelaria Loxicha</t>
   </si>
   <si>
-    <t>Lechoso</t>
-  </si>
-  <si>
-    <t>Consistente</t>
-  </si>
-  <si>
-    <t>Maduro</t>
-  </si>
-  <si>
     <t>San Mateo Pocutla</t>
   </si>
   <si>
@@ -84,29 +98,149 @@
     <t>San José Tenango</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>PS</t>
-  </si>
-  <si>
-    <t>PVI</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
-  <si>
-    <t>LVI</t>
-  </si>
-  <si>
-    <t>AL</t>
+    <t>Date of last update:</t>
+  </si>
+  <si>
+    <t>Project title:</t>
+  </si>
+  <si>
+    <t>Abstract:</t>
+  </si>
+  <si>
+    <t>Key words:</t>
+  </si>
+  <si>
+    <t>Lead investigator:</t>
+  </si>
+  <si>
+    <t>Contact information:</t>
+  </si>
+  <si>
+    <t>Data Manager:</t>
+  </si>
+  <si>
+    <t>Usage Rights &amp; Copyrights:</t>
+  </si>
+  <si>
+    <t>How to cite:</t>
+  </si>
+  <si>
+    <t>Geographic Area:</t>
+  </si>
+  <si>
+    <t>Collection dates:</t>
+  </si>
+  <si>
+    <t>Embargo:</t>
+  </si>
+  <si>
+    <t>Primary data sofware or service:</t>
+  </si>
+  <si>
+    <t>Dataset name:</t>
+  </si>
+  <si>
+    <t>Methods:</t>
+  </si>
+  <si>
+    <t>Coordinate system:</t>
+  </si>
+  <si>
+    <t>Additional Notes:</t>
+  </si>
+  <si>
+    <t>Tab name:</t>
+  </si>
+  <si>
+    <t>DM_Garropas</t>
+  </si>
+  <si>
+    <t>Fields:</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Incidence of Coffee Leaf Rust in Mexico</t>
+  </si>
+  <si>
+    <t>Camila Donatti, PhD</t>
+  </si>
+  <si>
+    <t>cdonatti@conservation.org; jvillasenor@bren.ucsb.edu</t>
+  </si>
+  <si>
+    <t>Juan Carlos Villaseñor-Derbez</t>
+  </si>
+  <si>
+    <t>Oaxaca, Mexico</t>
+  </si>
+  <si>
+    <t>04/05/2015 - 21/08/2016</t>
+  </si>
+  <si>
+    <t>Excel ; Rstudio</t>
+  </si>
+  <si>
+    <t>Santiago Lachiguiri</t>
+  </si>
+  <si>
+    <t>Gueva de Humboldt</t>
+  </si>
+  <si>
+    <t>Municipality</t>
+  </si>
+  <si>
+    <t>Municipality from which coffee plots come from</t>
+  </si>
+  <si>
+    <t>First day of sampling</t>
+  </si>
+  <si>
+    <t>Last day of sampling</t>
+  </si>
+  <si>
+    <t>Affected leaves per plant</t>
+  </si>
+  <si>
+    <t>Plant variability index (relative variability from regional mean)</t>
+  </si>
+  <si>
+    <t>Leaf variability index (relative variability from regional mean)</t>
+  </si>
+  <si>
+    <t>Plant severity (percentage of affected plants)</t>
+  </si>
+  <si>
+    <t>Leaf severity (percentage of affected leaves)</t>
+  </si>
+  <si>
+    <t>Number of stage-1 fruits per sampling site</t>
+  </si>
+  <si>
+    <t>Number of stage-2 fruits per sampling site</t>
+  </si>
+  <si>
+    <t>Number of stage-3 (mature) fruits per sampling site</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variables on coffee leaf rust incidence and damage </t>
+  </si>
+  <si>
+    <t>This data derives from ROYACAFE weekly reports (http://royacafe.lanref.org.mx/ReportesSPEyC_doc/)</t>
+  </si>
+  <si>
+    <t>ROYACAFE indicates that variability index (plant and leaf) values &gt; 10% indicate latent state. Variability index &lt; 10% and severity (leaf and plant) &gt; 30% indicate a moderate-high regional establishment of the disease. Índice de variabilidad es la variación regional relativa a la media. Valores de variabilidad (Hoja y Planta) superiores al 10% indican una condición de foco. Índice de variabilidad menor a 10% y severidad (Hoja y Planta) mayor al 30% indican epidemias establecidas regionalmente de intensidad moderada a alta.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,16 +248,324 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -131,16 +573,218 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,21 +1076,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K140"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="136.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2">
+        <v>42661</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K148"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
@@ -454,28 +1359,28 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -489,171 +1394,171 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
-        <v>42387</v>
+        <v>42128</v>
       </c>
       <c r="C2" s="1">
-        <v>42393</v>
+        <v>42134</v>
       </c>
       <c r="D2">
-        <v>17.2</v>
+        <v>7.6</v>
       </c>
       <c r="E2">
-        <v>9.6999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>2.1</v>
       </c>
       <c r="G2">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
+        <v>2.7</v>
+      </c>
+      <c r="H2">
+        <v>1.3</v>
+      </c>
+      <c r="I2">
+        <v>205</v>
+      </c>
+      <c r="J2">
+        <v>91</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>42387</v>
+        <v>42128</v>
       </c>
       <c r="C3" s="1">
-        <v>42393</v>
+        <v>42134</v>
       </c>
       <c r="D3">
-        <v>14.9</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>13.9</v>
+        <v>2.5</v>
       </c>
       <c r="F3">
-        <v>14.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G3">
-        <v>21.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>42387</v>
+        <v>42128</v>
       </c>
       <c r="C4" s="1">
-        <v>42393</v>
+        <v>42134</v>
       </c>
       <c r="D4">
-        <v>14.5</v>
+        <v>22.3</v>
       </c>
       <c r="E4">
-        <v>11.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F4">
-        <v>11.6</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="G4">
-        <v>14.5</v>
+        <v>15.8</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>42387</v>
+        <v>42128</v>
       </c>
       <c r="C5" s="1">
-        <v>42393</v>
+        <v>42134</v>
       </c>
       <c r="D5">
-        <v>17.8</v>
+        <v>11.6</v>
       </c>
       <c r="E5">
-        <v>4.9000000000000004</v>
+        <v>10.6</v>
       </c>
       <c r="F5">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="G5">
-        <v>4.8</v>
+        <v>12.4</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>42429</v>
+        <v>42135</v>
       </c>
       <c r="C6" s="1">
-        <v>42435</v>
+        <v>42141</v>
       </c>
       <c r="D6">
-        <v>11.9</v>
+        <v>9.4</v>
       </c>
       <c r="E6">
-        <v>16.899999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="F6">
-        <v>26.2</v>
+        <v>2.4</v>
       </c>
       <c r="G6">
-        <v>13.3</v>
+        <v>2.5</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -664,34 +1569,34 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>42429</v>
+        <v>42135</v>
       </c>
       <c r="C7" s="1">
-        <v>42435</v>
+        <v>42141</v>
       </c>
       <c r="D7">
-        <v>21.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E7">
-        <v>6.4</v>
+        <v>2.4</v>
       </c>
       <c r="F7">
-        <v>21.8</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>11.8</v>
+        <v>1.9</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>216.7</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -702,31 +1607,31 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>42429</v>
+        <v>42135</v>
       </c>
       <c r="C8" s="1">
-        <v>42435</v>
+        <v>42141</v>
       </c>
       <c r="D8">
-        <v>24.4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
+        <v>19.3</v>
+      </c>
+      <c r="E8">
+        <v>10.9</v>
       </c>
       <c r="F8">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
+        <v>21.3</v>
+      </c>
+      <c r="G8">
+        <v>10.4</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>74.5</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -734,31 +1639,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>42429</v>
+        <v>42135</v>
       </c>
       <c r="C9" s="1">
-        <v>42435</v>
+        <v>42141</v>
       </c>
       <c r="D9">
-        <v>21.6</v>
+        <v>8.1</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>6.9</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>8.6999999999999993</v>
+        <v>6.6</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -769,34 +1674,34 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>42429</v>
+        <v>42142</v>
       </c>
       <c r="C10" s="1">
-        <v>42435</v>
+        <v>42148</v>
       </c>
       <c r="D10">
-        <v>16.8</v>
-      </c>
-      <c r="E10">
-        <v>11.2</v>
+        <v>2.9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
+        <v>0.2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -804,63 +1709,63 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>42436</v>
+        <v>42142</v>
       </c>
       <c r="C11" s="1">
-        <v>42442</v>
+        <v>42148</v>
       </c>
       <c r="D11">
-        <v>6.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E11">
-        <v>6.9</v>
+        <v>1.3</v>
       </c>
       <c r="F11">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="G11">
-        <v>8.6</v>
-      </c>
-      <c r="H11">
-        <v>1.7</v>
-      </c>
-      <c r="I11">
-        <v>0.5</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
+        <v>1.2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>42436</v>
+        <v>42142</v>
       </c>
       <c r="C12" s="1">
-        <v>42442</v>
+        <v>42148</v>
       </c>
       <c r="D12">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>6.3</v>
       </c>
       <c r="F12">
-        <v>3.6</v>
+        <v>8.6</v>
       </c>
       <c r="G12">
-        <v>1.9</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>1.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -874,28 +1779,28 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>42436</v>
+        <v>42142</v>
       </c>
       <c r="C13" s="1">
-        <v>42442</v>
+        <v>42148</v>
       </c>
       <c r="D13">
-        <v>3.5</v>
+        <v>7.3</v>
       </c>
       <c r="E13">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="F13">
-        <v>1.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G13">
-        <v>1.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H13">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -912,66 +1817,66 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>42436</v>
+        <v>42149</v>
       </c>
       <c r="C14" s="1">
-        <v>42442</v>
+        <v>42155</v>
       </c>
       <c r="D14">
-        <v>4.5</v>
+        <v>8.9</v>
       </c>
       <c r="E14">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G14">
-        <v>0.4</v>
-      </c>
-      <c r="H14">
-        <v>1.5</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
+        <v>2.8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>42436</v>
+        <v>42149</v>
       </c>
       <c r="C15" s="1">
-        <v>42442</v>
+        <v>42155</v>
       </c>
       <c r="D15">
-        <v>1.1000000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="E15">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="F15">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="G15">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H15">
-        <v>0.1</v>
+        <v>3.6</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>289.3</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -979,34 +1884,34 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1">
-        <v>42436</v>
+        <v>42149</v>
       </c>
       <c r="C16" s="1">
-        <v>42442</v>
+        <v>42155</v>
       </c>
       <c r="D16">
-        <v>1.1000000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="E16">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="F16">
-        <v>0.2</v>
+        <v>19.5</v>
       </c>
       <c r="G16">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="H16">
-        <v>0.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I16">
-        <v>0.1</v>
+        <v>709</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1014,34 +1919,34 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
-        <v>42464</v>
+        <v>42149</v>
       </c>
       <c r="C17" s="1">
-        <v>42470</v>
+        <v>42155</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>15.1</v>
       </c>
       <c r="F17">
-        <v>14.3</v>
+        <v>12</v>
       </c>
       <c r="G17">
-        <v>5.6</v>
+        <v>14</v>
       </c>
       <c r="H17">
-        <v>4.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="I17">
-        <v>0.8</v>
+        <v>302.5</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1049,34 +1954,34 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>42464</v>
+        <v>42156</v>
       </c>
       <c r="C18" s="1">
-        <v>42470</v>
+        <v>42162</v>
       </c>
       <c r="D18">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="E18">
-        <v>2.5</v>
+        <v>6.6</v>
       </c>
       <c r="F18">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="H18">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="I18">
-        <v>0.3</v>
+        <v>483</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>217.5</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1084,279 +1989,279 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1">
-        <v>42464</v>
+        <v>42156</v>
       </c>
       <c r="C19" s="1">
-        <v>42470</v>
+        <v>42162</v>
       </c>
       <c r="D19">
-        <v>9.1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
+        <v>5.2</v>
+      </c>
+      <c r="E19">
+        <v>2.5</v>
       </c>
       <c r="F19">
-        <v>1.8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19">
-        <v>5.9</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
+        <v>3.1</v>
+      </c>
+      <c r="G19">
+        <v>3.2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1">
-        <v>42464</v>
+        <v>42156</v>
       </c>
       <c r="C20" s="1">
-        <v>42470</v>
+        <v>42162</v>
       </c>
       <c r="D20">
-        <v>23.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E20">
-        <v>33.1</v>
+        <v>5.8</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="G20">
-        <v>1.4</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
+        <v>7.4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>42464</v>
+        <v>42156</v>
       </c>
       <c r="C21" s="1">
-        <v>42470</v>
+        <v>42162</v>
       </c>
       <c r="D21">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="E21">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="F21">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="G21">
-        <v>0.5</v>
-      </c>
-      <c r="H21">
-        <v>4.3</v>
-      </c>
-      <c r="I21">
-        <v>15.5</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
+        <v>2.6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1">
-        <v>42464</v>
+        <v>42170</v>
       </c>
       <c r="C22" s="1">
-        <v>42470</v>
+        <v>42176</v>
       </c>
       <c r="D22">
+        <v>6.4</v>
+      </c>
+      <c r="E22">
+        <v>2.1</v>
+      </c>
+      <c r="F22">
+        <v>1.3</v>
+      </c>
+      <c r="G22">
         <v>0.9</v>
       </c>
-      <c r="E22">
-        <v>1.7</v>
-      </c>
-      <c r="F22">
-        <v>0.3</v>
-      </c>
-      <c r="G22">
-        <v>0.6</v>
-      </c>
-      <c r="H22">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I22">
-        <v>15.1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
-        <v>42464</v>
+        <v>42170</v>
       </c>
       <c r="C23" s="1">
-        <v>42470</v>
+        <v>42176</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>3.6</v>
-      </c>
-      <c r="I23">
-        <v>5</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1">
-        <v>42471</v>
+        <v>42170</v>
       </c>
       <c r="C24" s="1">
-        <v>42477</v>
+        <v>42176</v>
       </c>
       <c r="D24">
-        <v>16.7</v>
+        <v>3.1</v>
       </c>
       <c r="E24">
-        <v>10.199999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="F24">
-        <v>12.2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>3.1</v>
-      </c>
-      <c r="H24">
-        <v>6.1</v>
-      </c>
-      <c r="I24">
-        <v>1.2</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
+        <v>5.3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1">
-        <v>42471</v>
+        <v>42170</v>
       </c>
       <c r="C25" s="1">
-        <v>42477</v>
+        <v>42176</v>
       </c>
       <c r="D25">
-        <v>19.8</v>
+        <v>2.4</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>9.8000000000000007</v>
+        <v>1.3</v>
       </c>
       <c r="G25">
-        <v>2.1</v>
-      </c>
-      <c r="H25">
-        <v>3.8</v>
-      </c>
-      <c r="I25">
-        <v>5</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
+        <v>1.7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1">
-        <v>42471</v>
+        <v>42177</v>
       </c>
       <c r="C26" s="1">
-        <v>42477</v>
+        <v>42183</v>
       </c>
       <c r="D26">
-        <v>13.8</v>
+        <v>6.3</v>
       </c>
       <c r="E26">
-        <v>12.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F26">
-        <v>6.9</v>
+        <v>1.4</v>
       </c>
       <c r="G26">
-        <v>9.5</v>
+        <v>1.6</v>
       </c>
       <c r="H26">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="I26">
-        <v>15.1</v>
+        <v>342.5</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1364,34 +2269,34 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1">
-        <v>42471</v>
+        <v>42177</v>
       </c>
       <c r="C27" s="1">
-        <v>42477</v>
+        <v>42183</v>
       </c>
       <c r="D27">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
       <c r="E27">
-        <v>5.7</v>
+        <v>1.8</v>
       </c>
       <c r="F27">
-        <v>5.0999999999999996</v>
+        <v>1.3</v>
       </c>
       <c r="G27">
-        <v>5.2</v>
+        <v>1.4</v>
       </c>
       <c r="H27">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="I27">
-        <v>0.2</v>
+        <v>68.7</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1399,34 +2304,34 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1">
-        <v>42471</v>
+        <v>42177</v>
       </c>
       <c r="C28" s="1">
-        <v>42477</v>
+        <v>42183</v>
       </c>
       <c r="D28">
-        <v>9.1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
+        <v>3.3</v>
+      </c>
+      <c r="E28">
+        <v>2.5</v>
       </c>
       <c r="F28">
+        <v>3.1</v>
+      </c>
+      <c r="G28">
+        <v>3.8</v>
+      </c>
+      <c r="H28">
         <v>1.5</v>
       </c>
-      <c r="G28">
-        <v>0.6</v>
-      </c>
-      <c r="H28">
-        <v>5.9</v>
-      </c>
       <c r="I28">
-        <v>0</v>
+        <v>23.3</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>363.3</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1434,34 +2339,34 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1">
-        <v>42471</v>
+        <v>42177</v>
       </c>
       <c r="C29" s="1">
-        <v>42477</v>
+        <v>42183</v>
       </c>
       <c r="D29">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="E29">
-        <v>0.8</v>
+        <v>12.1</v>
       </c>
       <c r="F29">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="G29">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H29">
-        <v>4.4000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I29">
-        <v>15.5</v>
+        <v>285</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>231.5</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1469,174 +2374,174 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1">
-        <v>42492</v>
+        <v>42191</v>
       </c>
       <c r="C30" s="1">
-        <v>42498</v>
+        <v>42197</v>
       </c>
       <c r="D30">
-        <v>19.100000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="E30">
-        <v>4.0999999999999996</v>
+        <v>1.9</v>
       </c>
       <c r="F30">
-        <v>8.6</v>
+        <v>0.8</v>
       </c>
       <c r="G30">
-        <v>1.6</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
+        <v>0.3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1">
-        <v>42492</v>
+        <v>42191</v>
       </c>
       <c r="C31" s="1">
-        <v>42498</v>
+        <v>42197</v>
       </c>
       <c r="D31">
-        <v>11.4</v>
+        <v>3.4</v>
       </c>
       <c r="E31">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="F31">
-        <v>4.5999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="G31">
-        <v>4.8</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1">
-        <v>42492</v>
+        <v>42191</v>
       </c>
       <c r="C32" s="1">
-        <v>42498</v>
+        <v>42197</v>
       </c>
       <c r="D32">
-        <v>13.2</v>
+        <v>2.1</v>
       </c>
       <c r="E32">
-        <v>1.1000000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="F32">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="G32">
-        <v>0.2</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1">
-        <v>42492</v>
+        <v>42191</v>
       </c>
       <c r="C33" s="1">
-        <v>42498</v>
+        <v>42197</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="E33">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="F33">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
+        <v>2.7</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B34" s="1">
-        <v>42492</v>
+        <v>42212</v>
       </c>
       <c r="C34" s="1">
-        <v>42498</v>
+        <v>42218</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="E34">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="F34">
-        <v>2.2999999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G34">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1644,104 +2549,104 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B35" s="1">
-        <v>42492</v>
+        <v>42212</v>
       </c>
       <c r="C35" s="1">
-        <v>42498</v>
+        <v>42218</v>
       </c>
       <c r="D35">
-        <v>11.8</v>
+        <v>4.3</v>
       </c>
       <c r="E35">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="F35">
         <v>1.9</v>
       </c>
       <c r="G35">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="H35">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="J35">
-        <v>10.3</v>
+        <v>145</v>
       </c>
       <c r="K35">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1">
-        <v>42492</v>
+        <v>42212</v>
       </c>
       <c r="C36" s="1">
-        <v>42498</v>
+        <v>42218</v>
       </c>
       <c r="D36">
-        <v>11.8</v>
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>10.9</v>
       </c>
       <c r="F36">
-        <v>1.1000000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="G36">
-        <v>0.5</v>
+        <v>7.4</v>
       </c>
       <c r="H36">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>10.3</v>
+        <v>529</v>
       </c>
       <c r="K36">
-        <v>1.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1">
-        <v>42492</v>
+        <v>42212</v>
       </c>
       <c r="C37" s="1">
-        <v>42498</v>
+        <v>42218</v>
       </c>
       <c r="D37">
-        <v>3.6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>22</v>
+        <v>3.3</v>
+      </c>
+      <c r="E37">
+        <v>1.5</v>
       </c>
       <c r="F37">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
+        <v>2.7</v>
+      </c>
+      <c r="G37">
+        <v>3.2</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>280.5</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -1749,34 +2654,34 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B38" s="1">
-        <v>42492</v>
+        <v>42240</v>
       </c>
       <c r="C38" s="1">
-        <v>42498</v>
+        <v>42246</v>
       </c>
       <c r="D38">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="E38">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="F38">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="G38">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -1784,69 +2689,69 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1">
-        <v>42499</v>
+        <v>42240</v>
       </c>
       <c r="C39" s="1">
-        <v>42505</v>
+        <v>42246</v>
       </c>
       <c r="D39">
-        <v>17.2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>22</v>
+        <v>3.9</v>
+      </c>
+      <c r="E39">
+        <v>1.2</v>
       </c>
       <c r="F39">
-        <v>7.8</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
+        <v>1.6</v>
+      </c>
+      <c r="G39">
+        <v>0.9</v>
       </c>
       <c r="H39">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="I39">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B40" s="1">
-        <v>42499</v>
+        <v>42240</v>
       </c>
       <c r="C40" s="1">
-        <v>42505</v>
+        <v>42246</v>
       </c>
       <c r="D40">
-        <v>10.7</v>
+        <v>6.1</v>
       </c>
       <c r="E40">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="F40">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="G40">
-        <v>5.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H40">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="I40">
-        <v>275.8</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -1854,244 +2759,244 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1">
-        <v>42499</v>
+        <v>42240</v>
       </c>
       <c r="C41" s="1">
-        <v>42505</v>
+        <v>42246</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="E41">
-        <v>2.4</v>
+        <v>6.3</v>
       </c>
       <c r="F41">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="G41">
-        <v>1.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H41">
         <v>4.5999999999999996</v>
       </c>
       <c r="I41">
-        <v>549.79999999999995</v>
+        <v>18.5</v>
       </c>
       <c r="J41">
-        <v>2.6</v>
+        <v>294</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B42" s="1">
-        <v>42499</v>
+        <v>42247</v>
       </c>
       <c r="C42" s="1">
-        <v>42505</v>
+        <v>42253</v>
       </c>
       <c r="D42">
-        <v>25.1</v>
+        <v>5.8</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="G42">
-        <v>0.5</v>
-      </c>
-      <c r="H42">
-        <v>1.6</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>1.7</v>
-      </c>
-      <c r="K42">
-        <v>5.7</v>
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1">
-        <v>42499</v>
+        <v>42247</v>
       </c>
       <c r="C43" s="1">
-        <v>42505</v>
+        <v>42253</v>
       </c>
       <c r="D43">
-        <v>14.1</v>
+        <v>6.1</v>
       </c>
       <c r="E43">
-        <v>4.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F43">
-        <v>2.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G43">
-        <v>0.6</v>
-      </c>
-      <c r="H43">
-        <v>1.6</v>
-      </c>
-      <c r="I43">
-        <v>1.8</v>
-      </c>
-      <c r="J43">
-        <v>7.8</v>
-      </c>
-      <c r="K43">
-        <v>0.8</v>
+        <v>3.3</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B44" s="1">
-        <v>42499</v>
+        <v>42247</v>
       </c>
       <c r="C44" s="1">
-        <v>42505</v>
+        <v>42253</v>
       </c>
       <c r="D44">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="E44">
-        <v>4.9000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="F44">
-        <v>1.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G44">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H44">
-        <v>4.5</v>
-      </c>
-      <c r="I44">
-        <v>105.2</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
+        <v>2.6</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1">
-        <v>42499</v>
+        <v>42247</v>
       </c>
       <c r="C45" s="1">
-        <v>42505</v>
+        <v>42253</v>
       </c>
       <c r="D45">
-        <v>12.1</v>
+        <v>3.2</v>
       </c>
       <c r="E45">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="F45">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>0.5</v>
-      </c>
-      <c r="H45">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I45">
-        <v>8</v>
-      </c>
-      <c r="J45">
-        <v>14.7</v>
-      </c>
-      <c r="K45">
-        <v>4.8</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B46" s="1">
-        <v>42499</v>
+        <v>42254</v>
       </c>
       <c r="C46" s="1">
-        <v>42505</v>
+        <v>42260</v>
       </c>
       <c r="D46">
-        <v>3.6</v>
-      </c>
-      <c r="E46" t="s">
-        <v>22</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E46">
+        <v>3.8</v>
       </c>
       <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
+        <v>1.4</v>
+      </c>
+      <c r="G46">
+        <v>1.1000000000000001</v>
       </c>
       <c r="H46">
-        <v>4.9000000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="I46">
-        <v>194</v>
+        <v>4.3</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>385.7</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B47" s="1">
-        <v>42499</v>
+        <v>42254</v>
       </c>
       <c r="C47" s="1">
-        <v>42505</v>
+        <v>42260</v>
       </c>
       <c r="D47">
         <v>3.6</v>
       </c>
       <c r="E47">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F47">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="G47">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="H47">
-        <v>4.4000000000000004</v>
+        <v>2.7</v>
       </c>
       <c r="I47">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>100.5</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2099,1189 +3004,1189 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B48" s="1">
-        <v>42513</v>
+        <v>42254</v>
       </c>
       <c r="C48" s="1">
-        <v>42519</v>
+        <v>42260</v>
       </c>
       <c r="D48">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="E48">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="F48">
+        <v>3.2</v>
+      </c>
+      <c r="G48">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G48">
-        <v>0.9</v>
-      </c>
       <c r="H48">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="I48">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>519.5</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B49" s="1">
-        <v>42513</v>
+        <v>42254</v>
       </c>
       <c r="C49" s="1">
-        <v>42519</v>
+        <v>42260</v>
       </c>
       <c r="D49">
-        <v>8.6</v>
+        <v>2.9</v>
       </c>
       <c r="E49">
-        <v>1.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F49">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G49">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H49">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="I49">
-        <v>101.7</v>
+        <v>12.5</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>298.5</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B50" s="1">
-        <v>42513</v>
+        <v>42261</v>
       </c>
       <c r="C50" s="1">
-        <v>42519</v>
+        <v>42267</v>
       </c>
       <c r="D50">
-        <v>17.7</v>
+        <v>5.5</v>
       </c>
       <c r="E50">
-        <v>7.9</v>
+        <v>3.5</v>
       </c>
       <c r="F50">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0.3</v>
-      </c>
-      <c r="K50">
-        <v>2.2999999999999998</v>
+        <v>1.2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B51" s="1">
-        <v>42513</v>
+        <v>42261</v>
       </c>
       <c r="C51" s="1">
-        <v>42519</v>
+        <v>42267</v>
       </c>
       <c r="D51">
-        <v>11.1</v>
+        <v>5.5</v>
       </c>
       <c r="E51">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="G51">
-        <v>0.5</v>
-      </c>
-      <c r="H51">
-        <v>1.2</v>
-      </c>
-      <c r="I51">
-        <v>13</v>
-      </c>
-      <c r="J51">
-        <v>7.3</v>
-      </c>
-      <c r="K51">
-        <v>1.7</v>
+        <v>4.2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B52" s="1">
-        <v>42513</v>
+        <v>42261</v>
       </c>
       <c r="C52" s="1">
-        <v>42519</v>
+        <v>42267</v>
       </c>
       <c r="D52">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="E52">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="F52">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="G52">
-        <v>1.3</v>
-      </c>
-      <c r="H52">
-        <v>3.8</v>
-      </c>
-      <c r="I52">
-        <v>1005.3</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
+        <v>1.9</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B53" s="1">
-        <v>42513</v>
+        <v>42261</v>
       </c>
       <c r="C53" s="1">
-        <v>42519</v>
+        <v>42267</v>
       </c>
       <c r="D53">
-        <v>10.7</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="F53">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="G53">
-        <v>0.3</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>6</v>
-      </c>
-      <c r="J53">
-        <v>31.5</v>
-      </c>
-      <c r="K53">
-        <v>5.2</v>
+        <v>2.6</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B54" s="1">
-        <v>42513</v>
+        <v>42275</v>
       </c>
       <c r="C54" s="1">
-        <v>42519</v>
+        <v>42281</v>
       </c>
       <c r="D54">
-        <v>4.2</v>
+        <v>19</v>
       </c>
       <c r="E54">
-        <v>2.2000000000000002</v>
+        <v>13.2</v>
       </c>
       <c r="F54">
-        <v>0.7</v>
+        <v>9.4</v>
       </c>
       <c r="G54">
-        <v>0.5</v>
-      </c>
-      <c r="H54">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I54">
-        <v>587.5</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
+        <v>11.3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B55" s="1">
-        <v>42513</v>
+        <v>42275</v>
       </c>
       <c r="C55" s="1">
-        <v>42519</v>
+        <v>42281</v>
       </c>
       <c r="D55">
-        <v>3.6</v>
-      </c>
-      <c r="E55" t="s">
-        <v>22</v>
+        <v>6.6</v>
+      </c>
+      <c r="E55">
+        <v>3.5</v>
       </c>
       <c r="F55">
-        <v>0.5</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I55">
-        <v>923</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
+        <v>3.7</v>
+      </c>
+      <c r="G55">
+        <v>3.3</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B56" s="1">
-        <v>42513</v>
+        <v>42275</v>
       </c>
       <c r="C56" s="1">
-        <v>42519</v>
+        <v>42281</v>
       </c>
       <c r="D56">
-        <v>3.7</v>
+        <v>6.4</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="F56">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G56">
-        <v>0.4</v>
-      </c>
-      <c r="H56">
-        <v>3.4</v>
-      </c>
-      <c r="I56">
-        <v>177.5</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1">
-        <v>42527</v>
+        <v>42275</v>
       </c>
       <c r="C57" s="1">
-        <v>42533</v>
+        <v>42281</v>
       </c>
       <c r="D57">
-        <v>10.1</v>
+        <v>4.5</v>
       </c>
       <c r="E57">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="F57">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="G57">
-        <v>12.9</v>
-      </c>
-      <c r="H57">
-        <v>1.8</v>
-      </c>
-      <c r="I57">
-        <v>104.3</v>
-      </c>
-      <c r="J57">
-        <v>54.7</v>
-      </c>
-      <c r="K57">
-        <v>2.8</v>
+        <v>3.1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B58" s="1">
-        <v>42527</v>
+        <v>42303</v>
       </c>
       <c r="C58" s="1">
-        <v>42533</v>
+        <v>42309</v>
       </c>
       <c r="D58">
-        <v>10</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F58">
-        <v>3.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G58">
-        <v>5.3</v>
-      </c>
-      <c r="H58">
-        <v>1.4</v>
-      </c>
-      <c r="I58">
-        <v>28</v>
-      </c>
-      <c r="J58">
-        <v>52.3</v>
-      </c>
-      <c r="K58">
-        <v>3.8</v>
+        <v>6</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B59" s="1">
-        <v>42527</v>
+        <v>42303</v>
       </c>
       <c r="C59" s="1">
-        <v>42533</v>
+        <v>42309</v>
       </c>
       <c r="D59">
-        <v>11.1</v>
+        <v>11.6</v>
       </c>
       <c r="E59">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="F59">
-        <v>2.4</v>
+        <v>10.5</v>
       </c>
       <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I59">
-        <v>0.3</v>
-      </c>
-      <c r="J59">
-        <v>0.7</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
+        <v>7.7</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B60" s="1">
-        <v>42527</v>
+        <v>42303</v>
       </c>
       <c r="C60" s="1">
-        <v>42533</v>
+        <v>42309</v>
       </c>
       <c r="D60">
-        <v>4.4000000000000004</v>
+        <v>17.5</v>
       </c>
       <c r="E60">
-        <v>1.3</v>
+        <v>11.5</v>
       </c>
       <c r="F60">
-        <v>0.8</v>
+        <v>12.1</v>
       </c>
       <c r="G60">
-        <v>24.7</v>
-      </c>
-      <c r="H60">
-        <v>3.3</v>
-      </c>
-      <c r="I60">
-        <v>977.3</v>
-      </c>
-      <c r="J60">
-        <v>0.3</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
+        <v>13.3</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B61" s="1">
-        <v>42527</v>
+        <v>42303</v>
       </c>
       <c r="C61" s="1">
-        <v>42533</v>
+        <v>42309</v>
       </c>
       <c r="D61">
-        <v>5.0999999999999996</v>
+        <v>5.9</v>
       </c>
       <c r="E61">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>2.8</v>
-      </c>
-      <c r="I61">
-        <v>393.3</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B62" s="1">
-        <v>42527</v>
+        <v>42310</v>
       </c>
       <c r="C62" s="1">
-        <v>42533</v>
+        <v>42316</v>
       </c>
       <c r="D62">
-        <v>3.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E62">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="F62">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="G62">
-        <v>2.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H62">
-        <v>4.4000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="I62">
-        <v>1051</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B63" s="1">
-        <v>42527</v>
+        <v>42310</v>
       </c>
       <c r="C63" s="1">
-        <v>42533</v>
+        <v>42316</v>
       </c>
       <c r="D63">
-        <v>3.2</v>
+        <v>9.6</v>
       </c>
       <c r="E63">
-        <v>0.3</v>
+        <v>6.3</v>
       </c>
       <c r="F63">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="G63">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="H63">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I63">
-        <v>908.2</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>41.7</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B64" s="1">
-        <v>42527</v>
+        <v>42310</v>
       </c>
       <c r="C64" s="1">
-        <v>42533</v>
+        <v>42316</v>
       </c>
       <c r="D64">
-        <v>3.3</v>
-      </c>
-      <c r="E64" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>12.3</v>
       </c>
       <c r="F64">
-        <v>0.5</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G64">
+        <v>13.5</v>
       </c>
       <c r="H64">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="I64">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>313.5</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B65" s="1">
-        <v>42527</v>
+        <v>42310</v>
       </c>
       <c r="C65" s="1">
-        <v>42533</v>
+        <v>42316</v>
       </c>
       <c r="D65">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="F65">
-        <v>0.5</v>
+        <v>6.9</v>
       </c>
       <c r="G65">
-        <v>4.5999999999999996</v>
+        <v>7.8</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="I65">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>170.5</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B66" s="1">
-        <v>42128</v>
+        <v>42324</v>
       </c>
       <c r="C66" s="1">
-        <v>42134</v>
+        <v>42330</v>
       </c>
       <c r="D66">
-        <v>22.3</v>
+        <v>18.8</v>
       </c>
       <c r="E66">
-        <v>16.399999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="F66">
-        <v>20.399999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="G66">
-        <v>15.8</v>
-      </c>
-      <c r="H66" t="s">
-        <v>22</v>
-      </c>
-      <c r="I66" t="s">
-        <v>22</v>
-      </c>
-      <c r="J66" t="s">
-        <v>22</v>
-      </c>
-      <c r="K66" t="s">
-        <v>22</v>
+        <v>1.6</v>
+      </c>
+      <c r="H66">
+        <v>3.7</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>20.5</v>
+      </c>
+      <c r="K66">
+        <v>13.5</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B67" s="1">
-        <v>42128</v>
+        <v>42324</v>
       </c>
       <c r="C67" s="1">
-        <v>42134</v>
+        <v>42330</v>
       </c>
       <c r="D67">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="E67">
-        <v>10.6</v>
+        <v>9.4</v>
       </c>
       <c r="F67">
-        <v>5.8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G67">
-        <v>12.4</v>
-      </c>
-      <c r="H67" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" t="s">
-        <v>22</v>
-      </c>
-      <c r="J67" t="s">
-        <v>22</v>
-      </c>
-      <c r="K67" t="s">
-        <v>22</v>
+        <v>8.4</v>
+      </c>
+      <c r="H67">
+        <v>2.8</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>10.3</v>
+      </c>
+      <c r="K67">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B68" s="1">
-        <v>42128</v>
+        <v>42324</v>
       </c>
       <c r="C68" s="1">
-        <v>42134</v>
+        <v>42330</v>
       </c>
       <c r="D68">
-        <v>7.6</v>
+        <v>20.3</v>
       </c>
       <c r="E68">
-        <v>7.4</v>
+        <v>15.7</v>
       </c>
       <c r="F68">
-        <v>2.1</v>
+        <v>14.6</v>
       </c>
       <c r="G68">
-        <v>2.7</v>
+        <v>14.6</v>
       </c>
       <c r="H68">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="I68">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>195.5</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B69" s="1">
-        <v>42128</v>
+        <v>42324</v>
       </c>
       <c r="C69" s="1">
-        <v>42134</v>
+        <v>42330</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="E69">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="F69">
-        <v>1.1000000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="G69">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H69" t="s">
-        <v>22</v>
-      </c>
-      <c r="I69" t="s">
-        <v>22</v>
-      </c>
-      <c r="J69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K69" t="s">
-        <v>22</v>
+        <v>6.4</v>
+      </c>
+      <c r="H69">
+        <v>5.7</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>29.5</v>
+      </c>
+      <c r="K69">
+        <v>57.5</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B70" s="1">
-        <v>42135</v>
+        <v>42331</v>
       </c>
       <c r="C70" s="1">
-        <v>42141</v>
+        <v>42337</v>
       </c>
       <c r="D70">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="E70">
-        <v>10.9</v>
+        <v>6.9</v>
       </c>
       <c r="F70">
-        <v>21.3</v>
+        <v>6.6</v>
       </c>
       <c r="G70">
-        <v>10.4</v>
-      </c>
-      <c r="H70">
-        <v>2.7</v>
-      </c>
-      <c r="I70">
-        <v>74.5</v>
-      </c>
-      <c r="J70">
-        <v>6.5</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H70" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B71" s="1">
-        <v>42135</v>
+        <v>42331</v>
       </c>
       <c r="C71" s="1">
-        <v>42141</v>
+        <v>42337</v>
       </c>
       <c r="D71">
-        <v>8.1</v>
+        <v>15.5</v>
       </c>
       <c r="E71">
-        <v>6.9</v>
+        <v>10.7</v>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G71">
-        <v>6.6</v>
-      </c>
-      <c r="H71">
-        <v>5.6</v>
-      </c>
-      <c r="I71">
-        <v>96</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B72" s="1">
-        <v>42135</v>
+        <v>42331</v>
       </c>
       <c r="C72" s="1">
-        <v>42141</v>
+        <v>42337</v>
       </c>
       <c r="D72">
-        <v>9.4</v>
+        <v>13.4</v>
       </c>
       <c r="E72">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="F72">
-        <v>2.4</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G72">
-        <v>2.5</v>
-      </c>
-      <c r="H72">
-        <v>2.5</v>
-      </c>
-      <c r="I72">
-        <v>368</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
+        <v>8.4</v>
+      </c>
+      <c r="H72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B73" s="1">
-        <v>42135</v>
+        <v>42331</v>
       </c>
       <c r="C73" s="1">
-        <v>42141</v>
+        <v>42337</v>
       </c>
       <c r="D73">
-        <v>4.4000000000000004</v>
+        <v>10.4</v>
       </c>
       <c r="E73">
-        <v>2.4</v>
+        <v>7.3</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>9.4</v>
       </c>
       <c r="G73">
-        <v>1.9</v>
-      </c>
-      <c r="H73">
-        <v>4.2</v>
-      </c>
-      <c r="I73">
-        <v>216.7</v>
-      </c>
-      <c r="J73">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
+        <v>7.7</v>
+      </c>
+      <c r="H73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B74" s="1">
-        <v>42142</v>
+        <v>42359</v>
       </c>
       <c r="C74" s="1">
-        <v>42148</v>
+        <v>42365</v>
       </c>
       <c r="D74">
-        <v>8.9</v>
+        <v>12.2</v>
       </c>
       <c r="E74">
-        <v>6.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F74">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G74">
         <v>8.6</v>
       </c>
-      <c r="G74">
-        <v>10</v>
-      </c>
-      <c r="H74">
-        <v>0.2</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
+      <c r="H74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B75" s="1">
-        <v>42142</v>
+        <v>42359</v>
       </c>
       <c r="C75" s="1">
-        <v>42148</v>
+        <v>42365</v>
       </c>
       <c r="D75">
-        <v>7.3</v>
+        <v>15.3</v>
       </c>
       <c r="E75">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="F75">
-        <v>5.0999999999999996</v>
+        <v>15.2</v>
       </c>
       <c r="G75">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H75">
-        <v>0.1</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B76" s="1">
-        <v>42142</v>
+        <v>42359</v>
       </c>
       <c r="C76" s="1">
-        <v>42148</v>
+        <v>42365</v>
       </c>
       <c r="D76">
-        <v>4.9000000000000004</v>
+        <v>10.1</v>
       </c>
       <c r="E76">
-        <v>1.3</v>
+        <v>7.6</v>
       </c>
       <c r="F76">
-        <v>1.5</v>
+        <v>10.4</v>
       </c>
       <c r="G76">
-        <v>1.2</v>
+        <v>9.4</v>
       </c>
       <c r="H76" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I76" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J76" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K76" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B77" s="1">
-        <v>42142</v>
+        <v>42387</v>
       </c>
       <c r="C77" s="1">
-        <v>42148</v>
+        <v>42393</v>
       </c>
       <c r="D77">
-        <v>2.9</v>
-      </c>
-      <c r="E77" t="s">
-        <v>22</v>
+        <v>17.8</v>
+      </c>
+      <c r="E77">
+        <v>4.9000000000000004</v>
       </c>
       <c r="F77">
-        <v>0.2</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77">
-        <v>2</v>
-      </c>
-      <c r="I77">
-        <v>367</v>
-      </c>
-      <c r="J77">
-        <v>227</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
+        <v>6.8</v>
+      </c>
+      <c r="G77">
+        <v>4.8</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B78" s="1">
-        <v>42149</v>
+        <v>42387</v>
       </c>
       <c r="C78" s="1">
-        <v>42155</v>
+        <v>42393</v>
       </c>
       <c r="D78">
-        <v>12.3</v>
+        <v>14.5</v>
       </c>
       <c r="E78">
-        <v>2.9</v>
+        <v>11.4</v>
       </c>
       <c r="F78">
-        <v>19.5</v>
+        <v>11.6</v>
       </c>
       <c r="G78">
-        <v>4.8</v>
-      </c>
-      <c r="H78">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I78">
-        <v>709</v>
-      </c>
-      <c r="J78">
-        <v>93</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
+        <v>14.5</v>
+      </c>
+      <c r="H78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B79" s="1">
-        <v>42149</v>
+        <v>42387</v>
       </c>
       <c r="C79" s="1">
-        <v>42155</v>
+        <v>42393</v>
       </c>
       <c r="D79">
-        <v>16.3</v>
+        <v>17.2</v>
       </c>
       <c r="E79">
-        <v>15.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F79">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G79">
-        <v>14</v>
-      </c>
-      <c r="H79">
-        <v>5.3</v>
-      </c>
-      <c r="I79">
-        <v>302.5</v>
-      </c>
-      <c r="J79">
-        <v>2</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B80" s="1">
-        <v>42149</v>
+        <v>42387</v>
       </c>
       <c r="C80" s="1">
-        <v>42155</v>
+        <v>42393</v>
       </c>
       <c r="D80">
-        <v>8.9</v>
+        <v>14.9</v>
       </c>
       <c r="E80">
-        <v>8.5</v>
+        <v>13.9</v>
       </c>
       <c r="F80">
-        <v>2.2000000000000002</v>
+        <v>14.7</v>
       </c>
       <c r="G80">
-        <v>2.8</v>
+        <v>21.7</v>
       </c>
       <c r="H80" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I80" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J80" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K80" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="1">
+        <v>42429</v>
+      </c>
+      <c r="C81" s="1">
+        <v>42435</v>
+      </c>
+      <c r="D81">
+        <v>16.8</v>
+      </c>
+      <c r="E81">
+        <v>11.2</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81">
         <v>5</v>
       </c>
-      <c r="B81" s="1">
-        <v>42149</v>
-      </c>
-      <c r="C81" s="1">
-        <v>42155</v>
-      </c>
-      <c r="D81">
-        <v>3.8</v>
-      </c>
-      <c r="E81">
-        <v>1.2</v>
-      </c>
-      <c r="F81">
-        <v>0.9</v>
-      </c>
-      <c r="G81">
-        <v>0.6</v>
-      </c>
       <c r="H81">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>289.3</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>55.3</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -3289,139 +4194,139 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B82" s="1">
-        <v>42156</v>
+        <v>42429</v>
       </c>
       <c r="C82" s="1">
-        <v>42162</v>
+        <v>42435</v>
       </c>
       <c r="D82">
-        <v>5.0999999999999996</v>
+        <v>21.6</v>
       </c>
       <c r="E82">
-        <v>5.8</v>
+        <v>12</v>
       </c>
       <c r="F82">
-        <v>4.8</v>
+        <v>12</v>
       </c>
       <c r="G82">
-        <v>7.4</v>
-      </c>
-      <c r="H82" t="s">
-        <v>22</v>
-      </c>
-      <c r="I82" t="s">
-        <v>22</v>
-      </c>
-      <c r="J82" t="s">
-        <v>22</v>
-      </c>
-      <c r="K82" t="s">
-        <v>22</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B83" s="1">
-        <v>42156</v>
+        <v>42429</v>
       </c>
       <c r="C83" s="1">
-        <v>42162</v>
+        <v>42435</v>
       </c>
       <c r="D83">
-        <v>5.2</v>
+        <v>21.6</v>
       </c>
       <c r="E83">
-        <v>2.5</v>
+        <v>6.4</v>
       </c>
       <c r="F83">
-        <v>3.1</v>
+        <v>21.8</v>
       </c>
       <c r="G83">
-        <v>3.2</v>
-      </c>
-      <c r="H83" t="s">
-        <v>22</v>
-      </c>
-      <c r="I83" t="s">
-        <v>22</v>
-      </c>
-      <c r="J83" t="s">
-        <v>22</v>
-      </c>
-      <c r="K83" t="s">
-        <v>22</v>
+        <v>11.8</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B84" s="1">
-        <v>42156</v>
+        <v>42429</v>
       </c>
       <c r="C84" s="1">
-        <v>42162</v>
+        <v>42435</v>
       </c>
       <c r="D84">
-        <v>4.3</v>
-      </c>
-      <c r="E84">
-        <v>3.9</v>
+        <v>24.4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
       </c>
       <c r="F84">
-        <v>2.6</v>
-      </c>
-      <c r="G84">
-        <v>2.6</v>
-      </c>
-      <c r="H84" t="s">
-        <v>22</v>
-      </c>
-      <c r="I84" t="s">
-        <v>22</v>
-      </c>
-      <c r="J84" t="s">
-        <v>22</v>
-      </c>
-      <c r="K84" t="s">
-        <v>22</v>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B85" s="1">
-        <v>42156</v>
+        <v>42429</v>
       </c>
       <c r="C85" s="1">
-        <v>42162</v>
+        <v>42435</v>
       </c>
       <c r="D85">
-        <v>6.4</v>
+        <v>11.9</v>
       </c>
       <c r="E85">
-        <v>6.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>26.2</v>
       </c>
       <c r="G85">
-        <v>0.8</v>
+        <v>13.3</v>
       </c>
       <c r="H85">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>217.5</v>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -3429,174 +4334,174 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B86" s="1">
-        <v>42170</v>
+        <v>42436</v>
       </c>
       <c r="C86" s="1">
-        <v>42176</v>
+        <v>42442</v>
       </c>
       <c r="D86">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="E86">
-        <v>3.3</v>
+        <v>6.9</v>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="G86">
-        <v>5.3</v>
-      </c>
-      <c r="H86" t="s">
-        <v>22</v>
-      </c>
-      <c r="I86" t="s">
-        <v>22</v>
-      </c>
-      <c r="J86" t="s">
-        <v>22</v>
-      </c>
-      <c r="K86" t="s">
-        <v>22</v>
+        <v>8.6</v>
+      </c>
+      <c r="H86">
+        <v>1.7</v>
+      </c>
+      <c r="I86">
+        <v>0.5</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B87" s="1">
-        <v>42170</v>
+        <v>42436</v>
       </c>
       <c r="C87" s="1">
-        <v>42176</v>
+        <v>42442</v>
       </c>
       <c r="D87">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="E87">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="F87">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>0.9</v>
-      </c>
-      <c r="H87" t="s">
-        <v>22</v>
-      </c>
-      <c r="I87" t="s">
-        <v>22</v>
-      </c>
-      <c r="J87" t="s">
-        <v>22</v>
-      </c>
-      <c r="K87" t="s">
-        <v>22</v>
+        <v>0.4</v>
+      </c>
+      <c r="H87">
+        <v>1.5</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B88" s="1">
-        <v>42170</v>
+        <v>42436</v>
       </c>
       <c r="C88" s="1">
-        <v>42176</v>
+        <v>42442</v>
       </c>
       <c r="D88">
-        <v>2.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="F88">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="G88">
-        <v>1.7</v>
-      </c>
-      <c r="H88" t="s">
-        <v>22</v>
-      </c>
-      <c r="I88" t="s">
-        <v>22</v>
-      </c>
-      <c r="J88" t="s">
-        <v>22</v>
-      </c>
-      <c r="K88" t="s">
-        <v>22</v>
+        <v>0.4</v>
+      </c>
+      <c r="H88">
+        <v>0.6</v>
+      </c>
+      <c r="I88">
+        <v>0.1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B89" s="1">
-        <v>42170</v>
+        <v>42436</v>
       </c>
       <c r="C89" s="1">
-        <v>42176</v>
+        <v>42442</v>
       </c>
       <c r="D89">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="E89">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="F89">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="G89">
-        <v>0.2</v>
-      </c>
-      <c r="H89" t="s">
-        <v>22</v>
-      </c>
-      <c r="I89" t="s">
-        <v>22</v>
-      </c>
-      <c r="J89" t="s">
-        <v>22</v>
-      </c>
-      <c r="K89" t="s">
-        <v>22</v>
+        <v>1.4</v>
+      </c>
+      <c r="H89">
+        <v>2.4</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B90" s="1">
-        <v>42177</v>
+        <v>42436</v>
       </c>
       <c r="C90" s="1">
-        <v>42183</v>
+        <v>42442</v>
       </c>
       <c r="D90">
-        <v>3.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E90">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="F90">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="G90">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H90">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="I90">
-        <v>23.3</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>363.3</v>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -3604,34 +4509,34 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B91" s="1">
-        <v>42177</v>
+        <v>42436</v>
       </c>
       <c r="C91" s="1">
-        <v>42183</v>
+        <v>42442</v>
       </c>
       <c r="D91">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="E91">
-        <v>12.1</v>
+        <v>0.5</v>
       </c>
       <c r="F91">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="G91">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H91">
-        <v>4.9000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I91">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>231.5</v>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -3639,34 +4544,34 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B92" s="1">
-        <v>42177</v>
+        <v>42464</v>
       </c>
       <c r="C92" s="1">
-        <v>42183</v>
+        <v>42470</v>
       </c>
       <c r="D92">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>4.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I92">
-        <v>342.5</v>
+        <v>5</v>
       </c>
       <c r="J92">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -3674,34 +4579,34 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B93" s="1">
-        <v>42177</v>
+        <v>42464</v>
       </c>
       <c r="C93" s="1">
-        <v>42183</v>
+        <v>42470</v>
       </c>
       <c r="D93">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="E93">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="F93">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="G93">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H93">
-        <v>3.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I93">
-        <v>68.7</v>
+        <v>15.1</v>
       </c>
       <c r="J93">
-        <v>149.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -3709,209 +4614,209 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B94" s="1">
-        <v>42191</v>
+        <v>42464</v>
       </c>
       <c r="C94" s="1">
-        <v>42197</v>
+        <v>42470</v>
       </c>
       <c r="D94">
-        <v>2.1</v>
+        <v>16</v>
       </c>
       <c r="E94">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="F94">
-        <v>2.7</v>
+        <v>14.3</v>
       </c>
       <c r="G94">
-        <v>4.8</v>
-      </c>
-      <c r="H94" t="s">
-        <v>22</v>
-      </c>
-      <c r="I94" t="s">
-        <v>22</v>
-      </c>
-      <c r="J94" t="s">
-        <v>22</v>
-      </c>
-      <c r="K94" t="s">
-        <v>22</v>
+        <v>5.6</v>
+      </c>
+      <c r="H94">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I94">
+        <v>0.8</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B95" s="1">
-        <v>42191</v>
+        <v>42464</v>
       </c>
       <c r="C95" s="1">
-        <v>42197</v>
+        <v>42470</v>
       </c>
       <c r="D95">
+        <v>4.2</v>
+      </c>
+      <c r="E95">
         <v>2.5</v>
       </c>
-      <c r="E95">
-        <v>1.6</v>
-      </c>
       <c r="F95">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="G95">
-        <v>2.7</v>
-      </c>
-      <c r="H95" t="s">
-        <v>22</v>
-      </c>
-      <c r="I95" t="s">
-        <v>22</v>
-      </c>
-      <c r="J95" t="s">
-        <v>22</v>
-      </c>
-      <c r="K95" t="s">
-        <v>22</v>
+        <v>5.6</v>
+      </c>
+      <c r="H95">
+        <v>5.7</v>
+      </c>
+      <c r="I95">
+        <v>0.3</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B96" s="1">
-        <v>42191</v>
+        <v>42464</v>
       </c>
       <c r="C96" s="1">
-        <v>42197</v>
+        <v>42470</v>
       </c>
       <c r="D96">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="E96">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="F96">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G96">
-        <v>0.3</v>
-      </c>
-      <c r="H96" t="s">
-        <v>22</v>
-      </c>
-      <c r="I96" t="s">
-        <v>22</v>
-      </c>
-      <c r="J96" t="s">
-        <v>22</v>
-      </c>
-      <c r="K96" t="s">
-        <v>22</v>
+        <v>0.5</v>
+      </c>
+      <c r="H96">
+        <v>4.3</v>
+      </c>
+      <c r="I96">
+        <v>15.5</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B97" s="1">
-        <v>42191</v>
+        <v>42464</v>
       </c>
       <c r="C97" s="1">
-        <v>42197</v>
+        <v>42470</v>
       </c>
       <c r="D97">
-        <v>3.4</v>
+        <v>23.4</v>
       </c>
       <c r="E97">
-        <v>1.6</v>
+        <v>33.1</v>
       </c>
       <c r="F97">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>0.5</v>
-      </c>
-      <c r="H97" t="s">
-        <v>22</v>
-      </c>
-      <c r="I97" t="s">
-        <v>22</v>
-      </c>
-      <c r="J97" t="s">
-        <v>22</v>
-      </c>
-      <c r="K97" t="s">
-        <v>22</v>
+        <v>1.4</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B98" s="1">
-        <v>42212</v>
+        <v>42464</v>
       </c>
       <c r="C98" s="1">
-        <v>42218</v>
+        <v>42470</v>
       </c>
       <c r="D98">
-        <v>7</v>
-      </c>
-      <c r="E98">
-        <v>10.9</v>
+        <v>9.1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
       </c>
       <c r="F98">
-        <v>4.8</v>
-      </c>
-      <c r="G98">
-        <v>7.4</v>
+        <v>1.8</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
       </c>
       <c r="H98">
-        <v>2.4</v>
+        <v>5.9</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B99" s="1">
-        <v>42212</v>
+        <v>42471</v>
       </c>
       <c r="C99" s="1">
-        <v>42218</v>
+        <v>42477</v>
       </c>
       <c r="D99">
-        <v>3.3</v>
+        <v>19.8</v>
       </c>
       <c r="E99">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F99">
-        <v>2.7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G99">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H99">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="I99">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="J99">
-        <v>280.5</v>
+        <v>0</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -3919,69 +4824,69 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B100" s="1">
-        <v>42212</v>
+        <v>42471</v>
       </c>
       <c r="C100" s="1">
-        <v>42218</v>
+        <v>42477</v>
       </c>
       <c r="D100">
+        <v>13.8</v>
+      </c>
+      <c r="E100">
+        <v>12.2</v>
+      </c>
+      <c r="F100">
+        <v>6.9</v>
+      </c>
+      <c r="G100">
+        <v>9.5</v>
+      </c>
+      <c r="H100">
         <v>4.3</v>
       </c>
-      <c r="E100">
-        <v>1.5</v>
-      </c>
-      <c r="F100">
-        <v>1.9</v>
-      </c>
-      <c r="G100">
-        <v>2.4</v>
-      </c>
-      <c r="H100">
-        <v>2.5</v>
-      </c>
       <c r="I100">
-        <v>26.7</v>
+        <v>15.1</v>
       </c>
       <c r="J100">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B101" s="1">
-        <v>42212</v>
+        <v>42471</v>
       </c>
       <c r="C101" s="1">
-        <v>42218</v>
+        <v>42477</v>
       </c>
       <c r="D101">
-        <v>5.3</v>
+        <v>16.7</v>
       </c>
       <c r="E101">
-        <v>1.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F101">
-        <v>1.1000000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="G101">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H101">
-        <v>3.8</v>
+        <v>6.1</v>
       </c>
       <c r="I101">
-        <v>333</v>
+        <v>1.2</v>
       </c>
       <c r="J101">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -3989,69 +4894,69 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B102" s="1">
-        <v>42240</v>
+        <v>42471</v>
       </c>
       <c r="C102" s="1">
-        <v>42246</v>
+        <v>42477</v>
       </c>
       <c r="D102">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="E102">
-        <v>6.3</v>
+        <v>0.8</v>
       </c>
       <c r="F102">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="G102">
-        <v>5.0999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="H102">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I102">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="J102">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="K102">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B103" s="1">
-        <v>42240</v>
+        <v>42471</v>
       </c>
       <c r="C103" s="1">
-        <v>42246</v>
+        <v>42477</v>
       </c>
       <c r="D103">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="E103">
+        <v>5.7</v>
+      </c>
+      <c r="F103">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G103">
+        <v>5.2</v>
+      </c>
+      <c r="H103">
         <v>5.5</v>
       </c>
-      <c r="F103">
-        <v>2.5</v>
-      </c>
-      <c r="G103">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H103">
-        <v>2.6</v>
-      </c>
       <c r="I103">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J103">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -4059,69 +4964,69 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B104" s="1">
-        <v>42240</v>
+        <v>42471</v>
       </c>
       <c r="C104" s="1">
-        <v>42246</v>
+        <v>42477</v>
       </c>
       <c r="D104">
-        <v>3.9</v>
-      </c>
-      <c r="E104">
-        <v>1.2</v>
+        <v>9.1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>11</v>
       </c>
       <c r="F104">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="G104">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H104">
-        <v>2.4</v>
+        <v>5.9</v>
       </c>
       <c r="I104">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>155.69999999999999</v>
+        <v>0</v>
       </c>
       <c r="K104">
-        <v>3.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B105" s="1">
-        <v>42240</v>
+        <v>42492</v>
       </c>
       <c r="C105" s="1">
-        <v>42246</v>
+        <v>42498</v>
       </c>
       <c r="D105">
-        <v>6.2</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E105">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F105">
+        <v>8.6</v>
+      </c>
+      <c r="G105">
         <v>1.6</v>
       </c>
-      <c r="F105">
-        <v>1.2</v>
-      </c>
-      <c r="G105">
-        <v>0.7</v>
-      </c>
       <c r="H105">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -4129,279 +5034,279 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B106" s="1">
-        <v>42247</v>
+        <v>42492</v>
       </c>
       <c r="C106" s="1">
-        <v>42253</v>
+        <v>42498</v>
       </c>
       <c r="D106">
-        <v>6.1</v>
+        <v>13.2</v>
       </c>
       <c r="E106">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F106">
-        <v>5.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="G106">
-        <v>3.3</v>
-      </c>
-      <c r="H106" t="s">
-        <v>22</v>
-      </c>
-      <c r="I106" t="s">
-        <v>22</v>
-      </c>
-      <c r="J106" t="s">
-        <v>22</v>
-      </c>
-      <c r="K106" t="s">
-        <v>22</v>
+        <v>0.2</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B107" s="1">
-        <v>42247</v>
+        <v>42492</v>
       </c>
       <c r="C107" s="1">
-        <v>42253</v>
+        <v>42498</v>
       </c>
       <c r="D107">
-        <v>3.8</v>
+        <v>11.4</v>
       </c>
       <c r="E107">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="F107">
-        <v>2.2000000000000002</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G107">
-        <v>2.6</v>
-      </c>
-      <c r="H107" t="s">
-        <v>22</v>
-      </c>
-      <c r="I107" t="s">
-        <v>22</v>
-      </c>
-      <c r="J107" t="s">
-        <v>22</v>
-      </c>
-      <c r="K107" t="s">
-        <v>22</v>
+        <v>4.8</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B108" s="1">
-        <v>42247</v>
+        <v>42492</v>
       </c>
       <c r="C108" s="1">
-        <v>42253</v>
+        <v>42498</v>
       </c>
       <c r="D108">
-        <v>3.2</v>
+        <v>11.8</v>
       </c>
       <c r="E108">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G108">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H108" t="s">
-        <v>22</v>
-      </c>
-      <c r="I108" t="s">
-        <v>22</v>
-      </c>
-      <c r="J108" t="s">
-        <v>22</v>
-      </c>
-      <c r="K108" t="s">
-        <v>22</v>
+        <v>0.5</v>
+      </c>
+      <c r="H108">
+        <v>0.4</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>10.3</v>
+      </c>
+      <c r="K108">
+        <v>1.2</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="1">
+        <v>42492</v>
+      </c>
+      <c r="C109" s="1">
+        <v>42498</v>
+      </c>
+      <c r="D109">
         <v>6</v>
       </c>
-      <c r="B109" s="1">
-        <v>42247</v>
-      </c>
-      <c r="C109" s="1">
-        <v>42253</v>
-      </c>
-      <c r="D109">
-        <v>5.8</v>
-      </c>
       <c r="E109">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="F109">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="H109" t="s">
-        <v>22</v>
-      </c>
-      <c r="I109" t="s">
-        <v>22</v>
-      </c>
-      <c r="J109" t="s">
-        <v>22</v>
-      </c>
-      <c r="K109" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B110" s="1">
-        <v>42254</v>
+        <v>42492</v>
       </c>
       <c r="C110" s="1">
-        <v>42260</v>
+        <v>42498</v>
       </c>
       <c r="D110">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="E110">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="F110">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="G110">
-        <v>2.2000000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="H110">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>519.5</v>
+        <v>0</v>
       </c>
       <c r="K110">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B111" s="1">
-        <v>42254</v>
+        <v>42492</v>
       </c>
       <c r="C111" s="1">
-        <v>42260</v>
+        <v>42498</v>
       </c>
       <c r="D111">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="E111">
+        <v>5.4</v>
+      </c>
+      <c r="F111">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F111">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="G111">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H111">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>298.5</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B112" s="1">
-        <v>42254</v>
+        <v>42492</v>
       </c>
       <c r="C112" s="1">
-        <v>42260</v>
+        <v>42498</v>
       </c>
       <c r="D112">
-        <v>5.0999999999999996</v>
+        <v>11.8</v>
       </c>
       <c r="E112">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="F112">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="G112">
-        <v>1.1000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="H112">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="I112">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="J112">
-        <v>385.7</v>
+        <v>10.3</v>
       </c>
       <c r="K112">
-        <v>11</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B113" s="1">
-        <v>42254</v>
+        <v>42492</v>
       </c>
       <c r="C113" s="1">
-        <v>42260</v>
+        <v>42498</v>
       </c>
       <c r="D113">
         <v>3.6</v>
       </c>
-      <c r="E113">
-        <v>1.2</v>
+      <c r="E113" t="s">
+        <v>11</v>
       </c>
       <c r="F113">
-        <v>1.3</v>
-      </c>
-      <c r="G113">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
       </c>
       <c r="H113">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J113">
-        <v>100.5</v>
+        <v>0</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -4409,974 +5314,1235 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B114" s="1">
-        <v>42261</v>
+        <v>42499</v>
       </c>
       <c r="C114" s="1">
-        <v>42267</v>
+        <v>42505</v>
       </c>
       <c r="D114">
-        <v>5.5</v>
-      </c>
-      <c r="E114">
-        <v>2</v>
+        <v>17.2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
       </c>
       <c r="F114">
-        <v>4.7</v>
-      </c>
-      <c r="G114">
-        <v>4.2</v>
-      </c>
-      <c r="H114" t="s">
-        <v>22</v>
-      </c>
-      <c r="I114" t="s">
-        <v>22</v>
-      </c>
-      <c r="J114" t="s">
-        <v>22</v>
-      </c>
-      <c r="K114" t="s">
-        <v>22</v>
+        <v>7.8</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114">
+        <v>3.7</v>
+      </c>
+      <c r="I114">
+        <v>58</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" s="1">
+        <v>42499</v>
+      </c>
+      <c r="C115" s="1">
+        <v>42505</v>
+      </c>
+      <c r="D115">
+        <v>25.1</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115">
         <v>3</v>
       </c>
-      <c r="B115" s="1">
-        <v>42261</v>
-      </c>
-      <c r="C115" s="1">
-        <v>42267</v>
-      </c>
-      <c r="D115">
-        <v>7.1</v>
-      </c>
-      <c r="E115">
-        <v>3</v>
-      </c>
-      <c r="F115">
-        <v>3.9</v>
-      </c>
       <c r="G115">
-        <v>1.9</v>
-      </c>
-      <c r="H115" t="s">
-        <v>22</v>
-      </c>
-      <c r="I115" t="s">
-        <v>22</v>
-      </c>
-      <c r="J115" t="s">
-        <v>22</v>
-      </c>
-      <c r="K115" t="s">
-        <v>22</v>
+        <v>0.5</v>
+      </c>
+      <c r="H115">
+        <v>1.6</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1.7</v>
+      </c>
+      <c r="K115">
+        <v>5.7</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B116" s="1">
-        <v>42261</v>
+        <v>42499</v>
       </c>
       <c r="C116" s="1">
-        <v>42267</v>
+        <v>42505</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>10.7</v>
       </c>
       <c r="E116">
-        <v>2.8</v>
+        <v>9.5</v>
       </c>
       <c r="F116">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="G116">
-        <v>2.6</v>
-      </c>
-      <c r="H116" t="s">
-        <v>22</v>
-      </c>
-      <c r="I116" t="s">
-        <v>22</v>
-      </c>
-      <c r="J116" t="s">
-        <v>22</v>
-      </c>
-      <c r="K116" t="s">
-        <v>22</v>
+        <v>5.7</v>
+      </c>
+      <c r="H116">
+        <v>3.8</v>
+      </c>
+      <c r="I116">
+        <v>275.8</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B117" s="1">
-        <v>42261</v>
+        <v>42499</v>
       </c>
       <c r="C117" s="1">
-        <v>42267</v>
+        <v>42505</v>
       </c>
       <c r="D117">
-        <v>5.5</v>
+        <v>14.1</v>
       </c>
       <c r="E117">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="F117">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="G117">
-        <v>1.2</v>
-      </c>
-      <c r="H117" t="s">
-        <v>22</v>
-      </c>
-      <c r="I117" t="s">
-        <v>22</v>
-      </c>
-      <c r="J117" t="s">
-        <v>22</v>
-      </c>
-      <c r="K117" t="s">
-        <v>22</v>
+        <v>0.6</v>
+      </c>
+      <c r="H117">
+        <v>1.6</v>
+      </c>
+      <c r="I117">
+        <v>1.8</v>
+      </c>
+      <c r="J117">
+        <v>7.8</v>
+      </c>
+      <c r="K117">
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="1">
+        <v>42499</v>
+      </c>
+      <c r="C118" s="1">
+        <v>42505</v>
+      </c>
+      <c r="D118">
         <v>6</v>
       </c>
-      <c r="B118" s="1">
-        <v>42275</v>
-      </c>
-      <c r="C118" s="1">
-        <v>42281</v>
-      </c>
-      <c r="D118">
-        <v>19</v>
-      </c>
       <c r="E118">
-        <v>13.2</v>
+        <v>2.4</v>
       </c>
       <c r="F118">
-        <v>9.4</v>
+        <v>3.6</v>
       </c>
       <c r="G118">
-        <v>11.3</v>
-      </c>
-      <c r="H118" t="s">
-        <v>22</v>
-      </c>
-      <c r="I118" t="s">
-        <v>22</v>
-      </c>
-      <c r="J118" t="s">
-        <v>22</v>
-      </c>
-      <c r="K118" t="s">
-        <v>22</v>
+        <v>1.8</v>
+      </c>
+      <c r="H118">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I118">
+        <v>549.79999999999995</v>
+      </c>
+      <c r="J118">
+        <v>2.6</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B119" s="1">
-        <v>42275</v>
+        <v>42499</v>
       </c>
       <c r="C119" s="1">
-        <v>42281</v>
+        <v>42505</v>
       </c>
       <c r="D119">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="E119">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="F119">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="G119">
-        <v>4</v>
-      </c>
-      <c r="H119" t="s">
-        <v>22</v>
-      </c>
-      <c r="I119" t="s">
-        <v>22</v>
-      </c>
-      <c r="J119" t="s">
-        <v>22</v>
-      </c>
-      <c r="K119" t="s">
-        <v>22</v>
+        <v>0.1</v>
+      </c>
+      <c r="H119">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I119">
+        <v>130</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B120" s="1">
-        <v>42275</v>
+        <v>42499</v>
       </c>
       <c r="C120" s="1">
-        <v>42281</v>
+        <v>42505</v>
       </c>
       <c r="D120">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="E120">
-        <v>3.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F120">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="G120">
-        <v>3.3</v>
-      </c>
-      <c r="H120" t="s">
-        <v>22</v>
-      </c>
-      <c r="I120" t="s">
-        <v>22</v>
-      </c>
-      <c r="J120" t="s">
-        <v>22</v>
-      </c>
-      <c r="K120" t="s">
-        <v>22</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H120">
+        <v>4.5</v>
+      </c>
+      <c r="I120">
+        <v>105.2</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B121" s="1">
-        <v>42275</v>
+        <v>42499</v>
       </c>
       <c r="C121" s="1">
-        <v>42281</v>
+        <v>42505</v>
       </c>
       <c r="D121">
-        <v>4.5</v>
+        <v>12.1</v>
       </c>
       <c r="E121">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F121">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="G121">
-        <v>3.1</v>
-      </c>
-      <c r="H121" t="s">
-        <v>22</v>
-      </c>
-      <c r="I121" t="s">
-        <v>22</v>
-      </c>
-      <c r="J121" t="s">
-        <v>22</v>
-      </c>
-      <c r="K121" t="s">
-        <v>22</v>
+        <v>0.5</v>
+      </c>
+      <c r="H121">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I121">
+        <v>8</v>
+      </c>
+      <c r="J121">
+        <v>14.7</v>
+      </c>
+      <c r="K121">
+        <v>4.8</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B122" s="1">
-        <v>42303</v>
+        <v>42499</v>
       </c>
       <c r="C122" s="1">
-        <v>42309</v>
+        <v>42505</v>
       </c>
       <c r="D122">
-        <v>17.5</v>
-      </c>
-      <c r="E122">
-        <v>11.5</v>
+        <v>3.6</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
       </c>
       <c r="F122">
-        <v>12.1</v>
-      </c>
-      <c r="G122">
-        <v>13.3</v>
-      </c>
-      <c r="H122" t="s">
-        <v>22</v>
-      </c>
-      <c r="I122" t="s">
-        <v>22</v>
-      </c>
-      <c r="J122" t="s">
-        <v>22</v>
-      </c>
-      <c r="K122" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I122">
+        <v>194</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B123" s="1">
-        <v>42303</v>
+        <v>42513</v>
       </c>
       <c r="C123" s="1">
-        <v>42309</v>
+        <v>42519</v>
       </c>
       <c r="D123">
-        <v>11.6</v>
+        <v>8.6</v>
       </c>
       <c r="E123">
-        <v>7.1</v>
+        <v>1.4</v>
       </c>
       <c r="F123">
-        <v>10.5</v>
+        <v>1.8</v>
       </c>
       <c r="G123">
-        <v>7.7</v>
-      </c>
-      <c r="H123" t="s">
-        <v>22</v>
-      </c>
-      <c r="I123" t="s">
-        <v>22</v>
-      </c>
-      <c r="J123" t="s">
-        <v>22</v>
-      </c>
-      <c r="K123" t="s">
-        <v>22</v>
+        <v>0.5</v>
+      </c>
+      <c r="H123">
+        <v>2.4</v>
+      </c>
+      <c r="I123">
+        <v>101.7</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B124" s="1">
-        <v>42303</v>
+        <v>42513</v>
       </c>
       <c r="C124" s="1">
-        <v>42309</v>
+        <v>42519</v>
       </c>
       <c r="D124">
-        <v>19.100000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="E124">
-        <v>8.1999999999999993</v>
+        <v>7.9</v>
       </c>
       <c r="F124">
-        <v>9.1999999999999993</v>
+        <v>1.6</v>
       </c>
       <c r="G124">
-        <v>6</v>
-      </c>
-      <c r="H124" t="s">
-        <v>22</v>
-      </c>
-      <c r="I124" t="s">
-        <v>22</v>
-      </c>
-      <c r="J124" t="s">
-        <v>22</v>
-      </c>
-      <c r="K124" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0.3</v>
+      </c>
+      <c r="K124">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B125" s="1">
-        <v>42303</v>
+        <v>42513</v>
       </c>
       <c r="C125" s="1">
-        <v>42309</v>
+        <v>42519</v>
       </c>
       <c r="D125">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="F125">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="G125">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H125" t="s">
-        <v>22</v>
-      </c>
-      <c r="I125" t="s">
-        <v>22</v>
-      </c>
-      <c r="J125" t="s">
-        <v>22</v>
-      </c>
-      <c r="K125" t="s">
-        <v>22</v>
+        <v>1.3</v>
+      </c>
+      <c r="H125">
+        <v>3.8</v>
+      </c>
+      <c r="I125">
+        <v>1005.3</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B126" s="1">
-        <v>42310</v>
+        <v>42513</v>
       </c>
       <c r="C126" s="1">
-        <v>42316</v>
+        <v>42519</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>11.1</v>
       </c>
       <c r="E126">
-        <v>12.3</v>
+        <v>1.6</v>
       </c>
       <c r="F126">
-        <v>8.1999999999999993</v>
+        <v>1.5</v>
       </c>
       <c r="G126">
-        <v>13.5</v>
+        <v>0.5</v>
       </c>
       <c r="H126">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J126">
-        <v>313.5</v>
+        <v>7.3</v>
       </c>
       <c r="K126">
-        <v>112</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B127" s="1">
-        <v>42310</v>
+        <v>42513</v>
       </c>
       <c r="C127" s="1">
-        <v>42316</v>
+        <v>42519</v>
       </c>
       <c r="D127">
-        <v>9.6</v>
+        <v>5.3</v>
       </c>
       <c r="E127">
-        <v>6.3</v>
+        <v>1.6</v>
       </c>
       <c r="F127">
-        <v>7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G127">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H127">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="J127">
-        <v>41.7</v>
+        <v>0</v>
       </c>
       <c r="K127">
-        <v>68.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B128" s="1">
-        <v>42310</v>
+        <v>42513</v>
       </c>
       <c r="C128" s="1">
-        <v>42316</v>
+        <v>42519</v>
       </c>
       <c r="D128">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="E128">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>6.9</v>
+        <v>0.5</v>
       </c>
       <c r="G128">
-        <v>7.8</v>
+        <v>0.4</v>
       </c>
       <c r="H128">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>177.5</v>
       </c>
       <c r="J128">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="K128">
-        <v>170.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B129" s="1">
-        <v>42310</v>
+        <v>42513</v>
       </c>
       <c r="C129" s="1">
-        <v>42316</v>
+        <v>42519</v>
       </c>
       <c r="D129">
-        <v>18.399999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="E129">
-        <v>4.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F129">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="G129">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="H129">
-        <v>3.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>587.5</v>
       </c>
       <c r="J129">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="K129">
-        <v>194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B130" s="1">
-        <v>42324</v>
+        <v>42513</v>
       </c>
       <c r="C130" s="1">
-        <v>42330</v>
+        <v>42519</v>
       </c>
       <c r="D130">
-        <v>20.3</v>
+        <v>10.7</v>
       </c>
       <c r="E130">
-        <v>15.7</v>
+        <v>1.3</v>
       </c>
       <c r="F130">
-        <v>14.6</v>
+        <v>0.9</v>
       </c>
       <c r="G130">
-        <v>14.6</v>
+        <v>0.3</v>
       </c>
       <c r="H130">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J130">
-        <v>189</v>
+        <v>31.5</v>
       </c>
       <c r="K130">
-        <v>195.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B131" s="1">
-        <v>42324</v>
+        <v>42513</v>
       </c>
       <c r="C131" s="1">
-        <v>42330</v>
+        <v>42519</v>
       </c>
       <c r="D131">
-        <v>11.4</v>
-      </c>
-      <c r="E131">
-        <v>9.4</v>
+        <v>3.6</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
       </c>
       <c r="F131">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="G131">
-        <v>8.4</v>
+        <v>0.5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
       </c>
       <c r="H131">
-        <v>2.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="J131">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="K131">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B132" s="1">
-        <v>42324</v>
+        <v>42527</v>
       </c>
       <c r="C132" s="1">
-        <v>42330</v>
+        <v>42533</v>
       </c>
       <c r="D132">
-        <v>7.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E132">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="F132">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="G132">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>5.7</v>
+        <v>2.8</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>393.3</v>
       </c>
       <c r="J132">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="K132">
-        <v>57.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B133" s="1">
-        <v>42324</v>
+        <v>42527</v>
       </c>
       <c r="C133" s="1">
-        <v>42330</v>
+        <v>42533</v>
       </c>
       <c r="D133">
-        <v>18.8</v>
+        <v>11.1</v>
       </c>
       <c r="E133">
-        <v>7.9</v>
+        <v>1.2</v>
       </c>
       <c r="F133">
-        <v>6.1</v>
+        <v>2.4</v>
       </c>
       <c r="G133">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>3.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J133">
-        <v>20.5</v>
+        <v>0.7</v>
       </c>
       <c r="K133">
-        <v>13.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B134" s="1">
-        <v>42331</v>
+        <v>42527</v>
       </c>
       <c r="C134" s="1">
-        <v>42337</v>
+        <v>42533</v>
       </c>
       <c r="D134">
-        <v>15.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E134">
-        <v>10.7</v>
+        <v>1.3</v>
       </c>
       <c r="F134">
-        <v>10.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="G134">
-        <v>9</v>
-      </c>
-      <c r="H134" t="s">
-        <v>22</v>
-      </c>
-      <c r="I134" t="s">
-        <v>22</v>
-      </c>
-      <c r="J134" t="s">
-        <v>22</v>
-      </c>
-      <c r="K134" t="s">
-        <v>22</v>
+        <v>24.7</v>
+      </c>
+      <c r="H134">
+        <v>3.3</v>
+      </c>
+      <c r="I134">
+        <v>977.3</v>
+      </c>
+      <c r="J134">
+        <v>0.3</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B135" s="1">
-        <v>42331</v>
+        <v>42527</v>
       </c>
       <c r="C135" s="1">
-        <v>42337</v>
+        <v>42533</v>
       </c>
       <c r="D135">
-        <v>13.4</v>
+        <v>10.1</v>
       </c>
       <c r="E135">
-        <v>8.5</v>
+        <v>0.3</v>
       </c>
       <c r="F135">
-        <v>9.6999999999999993</v>
+        <v>4.2</v>
       </c>
       <c r="G135">
-        <v>8.4</v>
-      </c>
-      <c r="H135" t="s">
-        <v>22</v>
-      </c>
-      <c r="I135" t="s">
-        <v>22</v>
-      </c>
-      <c r="J135" t="s">
-        <v>22</v>
-      </c>
-      <c r="K135" t="s">
-        <v>22</v>
+        <v>12.9</v>
+      </c>
+      <c r="H135">
+        <v>1.8</v>
+      </c>
+      <c r="I135">
+        <v>104.3</v>
+      </c>
+      <c r="J135">
+        <v>54.7</v>
+      </c>
+      <c r="K135">
+        <v>2.8</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B136" s="1">
-        <v>42331</v>
+        <v>42527</v>
       </c>
       <c r="C136" s="1">
-        <v>42337</v>
+        <v>42533</v>
       </c>
       <c r="D136">
-        <v>10.4</v>
+        <v>3.2</v>
       </c>
       <c r="E136">
-        <v>7.3</v>
+        <v>0.3</v>
       </c>
       <c r="F136">
-        <v>9.4</v>
+        <v>0.5</v>
       </c>
       <c r="G136">
-        <v>7.7</v>
-      </c>
-      <c r="H136" t="s">
-        <v>22</v>
-      </c>
-      <c r="I136" t="s">
-        <v>22</v>
-      </c>
-      <c r="J136" t="s">
-        <v>22</v>
-      </c>
-      <c r="K136" t="s">
-        <v>22</v>
+        <v>5.8</v>
+      </c>
+      <c r="H136">
+        <v>3.7</v>
+      </c>
+      <c r="I136">
+        <v>908.2</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B137" s="1">
-        <v>42331</v>
+        <v>42527</v>
       </c>
       <c r="C137" s="1">
-        <v>42337</v>
+        <v>42533</v>
       </c>
       <c r="D137">
-        <v>19.5</v>
+        <v>3.7</v>
       </c>
       <c r="E137">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>6.6</v>
+        <v>0.5</v>
       </c>
       <c r="G137">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H137" t="s">
-        <v>22</v>
-      </c>
-      <c r="I137" t="s">
-        <v>22</v>
-      </c>
-      <c r="J137" t="s">
-        <v>22</v>
-      </c>
-      <c r="K137" t="s">
-        <v>22</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H137">
+        <v>3</v>
+      </c>
+      <c r="I137">
+        <v>415</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B138" s="1">
-        <v>42359</v>
+        <v>42527</v>
       </c>
       <c r="C138" s="1">
-        <v>42365</v>
+        <v>42533</v>
       </c>
       <c r="D138">
-        <v>15.3</v>
+        <v>3.3</v>
       </c>
       <c r="E138">
-        <v>7.5</v>
+        <v>0.6</v>
       </c>
       <c r="F138">
-        <v>15.2</v>
+        <v>0.5</v>
       </c>
       <c r="G138">
-        <v>11</v>
-      </c>
-      <c r="H138" t="s">
-        <v>22</v>
-      </c>
-      <c r="I138" t="s">
-        <v>22</v>
-      </c>
-      <c r="J138" t="s">
-        <v>22</v>
-      </c>
-      <c r="K138" t="s">
-        <v>22</v>
+        <v>2.7</v>
+      </c>
+      <c r="H138">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I138">
+        <v>1051</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B139" s="1">
-        <v>42359</v>
+        <v>42527</v>
       </c>
       <c r="C139" s="1">
-        <v>42365</v>
+        <v>42533</v>
       </c>
       <c r="D139">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="E139">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>10.4</v>
+        <v>3.6</v>
       </c>
       <c r="G139">
-        <v>9.4</v>
-      </c>
-      <c r="H139" t="s">
-        <v>22</v>
-      </c>
-      <c r="I139" t="s">
-        <v>22</v>
-      </c>
-      <c r="J139" t="s">
-        <v>22</v>
-      </c>
-      <c r="K139" t="s">
-        <v>22</v>
+        <v>5.3</v>
+      </c>
+      <c r="H139">
+        <v>1.4</v>
+      </c>
+      <c r="I139">
+        <v>28</v>
+      </c>
+      <c r="J139">
+        <v>52.3</v>
+      </c>
+      <c r="K139">
+        <v>3.8</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" s="1">
+        <v>42527</v>
+      </c>
+      <c r="C140" s="1">
+        <v>42533</v>
+      </c>
+      <c r="D140">
+        <v>3.3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140">
+        <v>0.5</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140">
+        <v>1.3</v>
+      </c>
+      <c r="I140">
+        <v>1100</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141" s="1">
+        <v>42597</v>
+      </c>
+      <c r="C141" s="1">
+        <v>42603</v>
+      </c>
+      <c r="D141">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E141">
+        <v>7.4</v>
+      </c>
+      <c r="F141">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G141">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H141">
+        <v>6.8</v>
+      </c>
+      <c r="I141">
+        <v>27.3</v>
+      </c>
+      <c r="J141">
+        <v>419</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142" s="1">
+        <v>42597</v>
+      </c>
+      <c r="C142" s="1">
+        <v>42603</v>
+      </c>
+      <c r="D142">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E142">
+        <v>5.2</v>
+      </c>
+      <c r="F142">
+        <v>4</v>
+      </c>
+      <c r="G142">
+        <v>12.4</v>
+      </c>
+      <c r="H142">
+        <v>3.4</v>
+      </c>
+      <c r="I142">
+        <v>91.7</v>
+      </c>
+      <c r="J142">
+        <v>190</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" t="s">
+        <v>24</v>
+      </c>
+      <c r="B143" s="1">
+        <v>42597</v>
+      </c>
+      <c r="C143" s="1">
+        <v>42603</v>
+      </c>
+      <c r="D143">
+        <v>4.5</v>
+      </c>
+      <c r="E143">
+        <v>0.6</v>
+      </c>
+      <c r="F143">
+        <v>2.8</v>
+      </c>
+      <c r="G143">
+        <v>7.5</v>
+      </c>
+      <c r="H143">
+        <v>1.7</v>
+      </c>
+      <c r="I143">
+        <v>367.3</v>
+      </c>
+      <c r="J143">
+        <v>232.7</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" s="1">
+        <v>42597</v>
+      </c>
+      <c r="C144" s="1">
+        <v>42603</v>
+      </c>
+      <c r="D144">
         <v>5</v>
       </c>
-      <c r="B140" s="1">
-        <v>42359</v>
-      </c>
-      <c r="C140" s="1">
-        <v>42365</v>
-      </c>
-      <c r="D140">
-        <v>12.2</v>
-      </c>
-      <c r="E140">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F140">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="G140">
-        <v>8.6</v>
-      </c>
-      <c r="H140" t="s">
-        <v>22</v>
-      </c>
-      <c r="I140" t="s">
-        <v>22</v>
-      </c>
-      <c r="J140" t="s">
-        <v>22</v>
-      </c>
-      <c r="K140" t="s">
-        <v>22</v>
+      <c r="E144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144">
+        <v>1.4</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144">
+        <v>4.2</v>
+      </c>
+      <c r="I144">
+        <v>275</v>
+      </c>
+      <c r="J144">
+        <v>160</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="1">
+        <v>42597</v>
+      </c>
+      <c r="C145" s="1">
+        <v>42603</v>
+      </c>
+      <c r="D145">
+        <v>5.3</v>
+      </c>
+      <c r="E145" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G145" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I145">
+        <v>268</v>
+      </c>
+      <c r="J145">
+        <v>144</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" t="s">
+        <v>55</v>
+      </c>
+      <c r="B146" s="1">
+        <v>42597</v>
+      </c>
+      <c r="C146" s="1">
+        <v>42603</v>
+      </c>
+      <c r="D146">
+        <v>4.5</v>
+      </c>
+      <c r="E146">
+        <v>0.7</v>
+      </c>
+      <c r="F146">
+        <v>0.7</v>
+      </c>
+      <c r="G146">
+        <v>2.7</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="1">
+        <v>42597</v>
+      </c>
+      <c r="C147" s="1">
+        <v>42603</v>
+      </c>
+      <c r="D147">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147">
+        <v>0.6</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+      <c r="H147">
+        <v>2.9</v>
+      </c>
+      <c r="I147">
+        <v>184</v>
+      </c>
+      <c r="J147">
+        <v>40</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" t="s">
+        <v>56</v>
+      </c>
+      <c r="B148" s="1">
+        <v>42597</v>
+      </c>
+      <c r="C148" s="1">
+        <v>42603</v>
+      </c>
+      <c r="D148">
+        <v>4.5</v>
+      </c>
+      <c r="E148">
+        <v>0.7</v>
+      </c>
+      <c r="F148">
+        <v>0.5</v>
+      </c>
+      <c r="G148">
+        <v>2.9</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sortState ref="A2:K140">
+    <sortCondition ref="B2:B140"/>
+    <sortCondition ref="C2:C140"/>
+    <sortCondition ref="A2:A140"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/royacafe_data.xlsx
+++ b/Data/royacafe_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JC\Documents\GitHub\OaxacaLeafRust\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="19440" windowHeight="8010"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="19440" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -152,9 +157,6 @@
     <t>Tab name:</t>
   </si>
   <si>
-    <t>DM_Garropas</t>
-  </si>
-  <si>
     <t>Fields:</t>
   </si>
   <si>
@@ -234,13 +236,16 @@
   </si>
   <si>
     <t>ROYACAFE indicates that variability index (plant and leaf) values &gt; 10% indicate latent state. Variability index &lt; 10% and severity (leaf and plant) &gt; 30% indicate a moderate-high regional establishment of the disease. Índice de variabilidad es la variación regional relativa a la media. Valores de variabilidad (Hoja y Planta) superiores al 10% indican una condición de foco. Índice de variabilidad menor a 10% y severidad (Hoja y Planta) mayor al 30% indican epidemias establecidas regionalmente de intensidad moderada a alta.</t>
+  </si>
+  <si>
+    <t>royacafe_data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,57 +747,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -834,7 +847,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -866,9 +879,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -900,6 +931,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1075,21 +1124,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="136.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="136.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -1097,15 +1146,15 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1113,223 +1162,223 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
     </row>
   </sheetData>
@@ -1339,27 +1388,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K148"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1392,7 +1441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1427,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1462,7 +1511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1497,7 +1546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1532,7 +1581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1567,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1602,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1637,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1672,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1707,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1742,7 +1791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1777,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1812,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1847,7 +1896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1882,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1917,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1952,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1987,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2022,7 +2071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2057,7 +2106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2092,7 +2141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2127,7 +2176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2162,7 +2211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -2197,7 +2246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2232,7 +2281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -2267,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2302,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2337,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -2372,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2407,7 +2456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2442,7 +2491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2477,7 +2526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2512,7 +2561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2547,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2582,7 +2631,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2617,7 +2666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2652,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2687,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2722,7 +2771,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2757,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2792,7 +2841,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2827,7 +2876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2862,7 +2911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2897,7 +2946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2932,7 +2981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -2967,7 +3016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -3002,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -3037,7 +3086,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -3072,7 +3121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -3107,7 +3156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -3142,7 +3191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -3177,7 +3226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -3212,7 +3261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -3247,7 +3296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -3282,7 +3331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -3317,7 +3366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -3352,7 +3401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -3387,7 +3436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -3422,7 +3471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -3457,7 +3506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -3492,7 +3541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -3527,7 +3576,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -3562,7 +3611,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -3597,7 +3646,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -3632,7 +3681,7 @@
         <v>170.5</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -3667,7 +3716,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -3702,7 +3751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3737,7 +3786,7 @@
         <v>195.5</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -3772,7 +3821,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -3807,7 +3856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -3842,7 +3891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3877,7 +3926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -3912,7 +3961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -3947,7 +3996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3982,7 +4031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -4017,7 +4066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -4052,7 +4101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -4087,7 +4136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -4122,7 +4171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -4157,7 +4206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -4192,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -4227,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -4262,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -4297,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -4332,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -4367,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -4402,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -4437,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -4472,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -4507,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -4542,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -4577,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -4612,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -4647,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -4682,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -4717,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -4752,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -4787,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -4822,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -4857,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -4892,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -4927,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -4962,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -4997,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -5032,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>24</v>
       </c>
@@ -5067,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -5102,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -5137,7 +5186,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -5172,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>23</v>
       </c>
@@ -5207,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -5242,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -5277,7 +5326,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>22</v>
       </c>
@@ -5312,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -5347,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>24</v>
       </c>
@@ -5382,7 +5431,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -5417,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>26</v>
       </c>
@@ -5452,7 +5501,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -5487,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>23</v>
       </c>
@@ -5522,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -5557,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>25</v>
       </c>
@@ -5592,7 +5641,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>22</v>
       </c>
@@ -5627,7 +5676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -5662,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>24</v>
       </c>
@@ -5697,7 +5746,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -5732,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -5767,7 +5816,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -5802,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>23</v>
       </c>
@@ -5837,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -5872,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>25</v>
       </c>
@@ -5907,7 +5956,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -5942,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -5977,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -6012,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -6047,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -6082,7 +6131,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -6117,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>23</v>
       </c>
@@ -6152,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -6187,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>25</v>
       </c>
@@ -6222,7 +6271,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>22</v>
       </c>
@@ -6257,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -6292,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>25</v>
       </c>
@@ -6327,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -6362,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -6397,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -6432,9 +6481,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B146" s="1">
         <v>42597</v>
@@ -6467,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -6502,9 +6551,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B148" s="1">
         <v>42597</v>
